--- a/ws_sql/테이블명세서/cus_pro.xlsx
+++ b/ws_sql/테이블명세서/cus_pro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Documents\GitHub\BNK-KDT\ws_sql\테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE841CA-5146-4C43-B4D5-DCE2A34AE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B6506-D150-427A-9A84-799A03E4629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="82">
   <si>
     <t>Table ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,130 @@
   </si>
   <si>
     <t>O, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업사원 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O, FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_RANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SALES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매실적 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_STO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_DEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품입고 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품출고 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,13 +444,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,7 +746,7 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,13 +756,13 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -678,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -694,7 +818,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -710,7 +834,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -721,12 +845,12 @@
         <v>36</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -742,7 +866,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,13 +876,13 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -798,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -814,7 +938,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -827,8 +951,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -844,21 +971,21 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -881,10 +1008,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -902,10 +1029,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>37</v>
@@ -914,21 +1041,29 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -951,11 +1086,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -967,93 +1102,429 @@
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D28" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D38" s="2">
         <v>10</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D47:F47"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ws_sql/테이블명세서/cus_pro.xlsx
+++ b/ws_sql/테이블명세서/cus_pro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Documents\GitHub\BNK-KDT\ws_sql\테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B6506-D150-427A-9A84-799A03E4629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418527A8-196C-4027-972F-589C65DA317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
   <si>
     <t>Table ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영업사원 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사원번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E_RANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +344,30 @@
   </si>
   <si>
     <t xml:space="preserve">                                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업사원정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_PW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -952,7 +968,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -976,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1029,10 +1045,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>37</v>
@@ -1054,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1107,10 +1123,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>37</v>
@@ -1119,14 +1135,6 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
@@ -1336,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1369,31 +1377,31 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
+      <c r="A43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2">
         <v>10</v>
@@ -1403,13 +1411,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2">
         <v>10</v>
@@ -1419,106 +1427,138 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="D49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2">
-        <v>10</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="2">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D16:F16"/>

--- a/ws_sql/테이블명세서/cus_pro.xlsx
+++ b/ws_sql/테이블명세서/cus_pro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Documents\GitHub\BNK-KDT\ws_sql\테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418527A8-196C-4027-972F-589C65DA317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A48CB-8520-4D4C-A024-7E1925AAC168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16110" yWindow="105" windowWidth="12495" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,6 +364,10 @@
   </si>
   <si>
     <t>E_PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,7 +965,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -992,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>62</v>
@@ -1070,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>63</v>
@@ -1350,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1383,7 +1380,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
@@ -1394,11 +1391,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
@@ -1417,7 +1414,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2">
         <v>10</v>
@@ -1427,13 +1424,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2">
         <v>10</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
@@ -1476,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1515,7 +1512,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1531,7 +1528,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1545,7 +1542,7 @@
         <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2">
         <v>10</v>
